--- a/demo.xlsx
+++ b/demo.xlsx
@@ -46,7 +46,7 @@
     <t>V jakém roce byl upálen mistr Jan Hus?</t>
   </si>
   <si>
-    <t>Která z následujících není městkou částí Brna?</t>
+    <t>Která z následujících není městskou částí Brna?</t>
   </si>
   <si>
     <t>Vinohrady</t>
@@ -101,6 +101,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,18 +190,18 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.515306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
